--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Narinder\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Narinder\Desktop\MacroPrep\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>math function working with user input</t>
+  </si>
+  <si>
+    <t>more to come</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +598,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Narinder\Desktop\MacroPrep\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsingh2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18336" windowHeight="8784"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,60 +24,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>make it more costumizable for the end user</t>
-  </si>
-  <si>
-    <t>the ability to store and calculate personal info.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the user wants to usablility to store multiple meals </t>
-  </si>
-  <si>
-    <t>the ability to plane weeks of meals and save and view later.</t>
-  </si>
-  <si>
-    <t>the ability for multiple users to login and make it personal</t>
-  </si>
-  <si>
     <t>Points (1-10)</t>
   </si>
   <si>
-    <t>get the PHP file to pull all the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">planning </t>
-  </si>
-  <si>
-    <t>Dividing work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create User interface </t>
-  </si>
-  <si>
-    <t>Get Government database on MySQL</t>
-  </si>
-  <si>
-    <t>work  on the css of the user interface</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>math function working with user input</t>
-  </si>
-  <si>
-    <t>more to come</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Math Calculation</t>
+  </si>
+  <si>
+    <t>Having the serving size be split into the proper fats, carbs, and protein with all positive outputs or through error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can easily adjust the macros according to there preferance </t>
+  </si>
+  <si>
+    <t>user login</t>
+  </si>
+  <si>
+    <t>check to see if the user exist, if not offer them to create a new logint</t>
+  </si>
+  <si>
+    <t>user custumization using slider bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculating BMR, BMI </t>
+  </si>
+  <si>
+    <t>getting the user to enter personal information and calculating the output</t>
+  </si>
+  <si>
+    <t>Food database</t>
+  </si>
+  <si>
+    <t>Getting the government database on SQL and working with condenced food chocies</t>
+  </si>
+  <si>
+    <t>storging user data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storing the information the user inputs and the page list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of foods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">give a list of food to choose from and display it to the user and let them change it if desired </t>
+  </si>
+  <si>
+    <t>out put a days worth of grocery list and there prices to the user</t>
+  </si>
+  <si>
+    <t>shopping list</t>
+  </si>
+  <si>
+    <t>save pages</t>
+  </si>
+  <si>
+    <t>saving meal information</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>return the user saved information and the list of actions</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>making it easier for the user so they don’t have to read an manual and have it strait forward for the user</t>
+  </si>
+  <si>
+    <t>user profile</t>
+  </si>
+  <si>
+    <t>have everything on the SQL server and return when the user enters credentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,171 +478,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="85.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
   </sheetData>
